--- a/prueba21/copia_prueba21.xlsx
+++ b/prueba21/copia_prueba21.xlsx
@@ -16367,14 +16367,1724 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1.000SD1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD1-FQ01-X2/
+ ++1.000SD2-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1.000SD1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.000SD2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD2-FQ01-X2/
+ ++1.000SD3-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.000SD2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.000SD3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD3-FQ01-X2/
+ ++1.000SD4-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.000SD3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.000SD4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD4-FQ01-X2/
+ ++1.000SD5-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.000SD4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.000SD5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD5-FQ01-X2/
+ ++2.000SD1-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.000SD5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.160TT1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DU1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-WD++1.160TT1+DU1-TA01-X1/
+ ++1.180TT1+DU1-TA01-X1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.160TT1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DU1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.190DP2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-XD02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-WD++1.190DP2+VI1-KF53-XD02/
+ ++1.190DP1+VI1-KF53-XD01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.190DP2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>-XD01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.200TT1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DU1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-WD++1.200TT1+DU1-TA01-X1/
+ ++1.210TT1+DU1-TA01-X1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.200TT1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DU1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-TA01</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.000SD1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-X2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-WD++2.000SD1-FQ01-X2/
+ ++2.000SD2-FQ01-X1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2.000SD1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-X1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.230BC1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-BG01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-WD++2.150GC1-BG01-XD1B/
+ ++2.150GC1-BG01-XD1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.230BC1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-BG01</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-XD1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-0EA01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>XO</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0EA01-XO/
+ ++CC1-0EA01-XI</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-0EA01</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>XI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-0XD01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++CC1-0XD01.2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-0XD01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-0XD01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++CC1-0XD01.3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CP1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-0XD01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.150SW1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-WF270579188</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.150SW1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.160FX2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-WF270579199</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.160FX2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.160FX3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-WF270579200</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.160FX3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.160FX4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-WF270579201</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.160FX4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.170MF1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-WF270579205</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.170MF1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.190DP2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-XF2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-WF270579214</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.190DP2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-KF53</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-XF1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.000SD3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-WF270579244</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.000SD3</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.000SD5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-WF270579245</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.000SD5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.000SD1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-WF270579246</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1.000SD1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.000SD4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-WF270579247</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1.000SD4</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2.000SD1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-WF270579248</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2.000SD1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.000SD2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-X3PN2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-WF270579249</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1.000SD2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-FQ01</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-X4PN1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.180FX2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-WF270579254</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1.180FX2</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.210FX2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-WF270579259</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1.210FX2</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.210FX3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-WF270579260</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1.210FX3</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.210FX4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-WF270579261</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.210FX4</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.200FX2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-WF270579266</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1.200FX2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.200FX3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-WF270579267</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.200FX3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.200FX4</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-WF270579268</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1.200FX4</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.230BC1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-TP1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-WF270579269</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>DF--.2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1.230BC1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>VI1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-KF41.0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-TP2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prueba21/copia_prueba21.xlsx
+++ b/prueba21/copia_prueba21.xlsx
@@ -16367,1724 +16367,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1.000SD1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>-WD++1.000SD1-FQ01-X2/
- ++1.000SD2-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>1.000SD1</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.000SD2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-WD++1.000SD2-FQ01-X2/
- ++1.000SD3-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.000SD2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.000SD3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-WD++1.000SD3-FQ01-X2/
- ++1.000SD4-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1.000SD3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.000SD4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-WD++1.000SD4-FQ01-X2/
- ++1.000SD5-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1.000SD4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.000SD5</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-WD++1.000SD5-FQ01-X2/
- ++2.000SD1-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1.000SD5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.160TT1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DU1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-WD++1.160TT1+DU1-TA01-X1/
- ++1.180TT1+DU1-TA01-X1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.160TT1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>DU1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.190DP2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-XD02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-WD++1.190DP2+VI1-KF53-XD02/
- ++1.190DP1+VI1-KF53-XD01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.190DP2</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-XD01</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.200TT1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DU1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-WD++1.200TT1+DU1-TA01-X1/
- ++1.210TT1+DU1-TA01-X1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.200TT1</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>DU1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>-TA01</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2.000SD1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-X2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-WD++2.000SD1-FQ01-X2/
- ++2.000SD2-FQ01-X1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2.000SD1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-X1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1.230BC1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-BG01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-WD++2.150GC1-BG01-XD1B/
- ++2.150GC1-BG01-XD1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.230BC1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>-BG01</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>-XD1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-0EA01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>XO</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-WD++CP1-0EA01-XO/
- ++CC1-0EA01-XI</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>-0EA01</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>XI</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-0XD01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-WD++CP1-0XD01/
- ++CC1-0XD01.2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>-0XD01</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-0XD01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-WD++CP1-0XD01/
- ++CC1-0XD01.3</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CP1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>-0XD01</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1.150SW1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-WF270579188</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1.150SW1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1.160FX2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-WF270579199</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1.160FX2</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.160FX3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-WF270579200</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1.160FX3</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1.160FX4</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-WF270579201</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1.160FX4</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1.170MF1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-WF270579205</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1.170MF1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1.190DP2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-XF2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-WF270579214</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>1.190DP2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>-KF53</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-XF1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1.000SD3</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-WF270579244</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1.000SD3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.000SD5</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-WF270579245</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.000SD5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1.000SD1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-WF270579246</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>1.000SD1</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1.000SD4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-WF270579247</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>1.000SD4</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2.000SD1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-WF270579248</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2.000SD1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1.000SD2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-X3PN2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-WF270579249</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>1.000SD2</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-FQ01</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-X4PN1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1.180FX2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-WF270579254</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>1.180FX2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1.210FX2</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-WF270579259</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1.210FX2</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1.210FX3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-WF270579260</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1.210FX3</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1.210FX4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-WF270579261</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1.210FX4</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.200FX2</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-WF270579266</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1.200FX2</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1.200FX3</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-WF270579267</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1.200FX3</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1.200FX4</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-WF270579268</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1.200FX4</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1.230BC1</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-TP1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-WF270579269</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>DF--.2</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1.230BC1</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>VI1</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>-KF41.0</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>-TP2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>